--- a/tut06/output/2001ME38.xlsx
+++ b/tut06/output/2001ME38.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -646,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -711,7 +713,9 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -864,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -885,7 +889,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
